--- a/data/trans_camb/P38B-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Dificultad-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>0.642472654668913</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-5.506004910405937</v>
+        <v>-5.506004910405926</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.116397148703301</v>
+        <v>-2.977756896147096</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.91548263257707</v>
+        <v>-16.64470825670928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.250954076549044</v>
+        <v>-1.713469700908437</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.448028132408011</v>
+        <v>-5.377609662412461</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.620126324955937</v>
+        <v>-1.328608672052883</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.865062669999656</v>
+        <v>-9.038193474515676</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.798304097867258</v>
+        <v>3.871913271464615</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-5.575349200978071</v>
+        <v>-4.879203858407193</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.620382495336107</v>
+        <v>3.754900896723715</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.8345247580663</v>
+        <v>2.097529847272278</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.97598376513578</v>
+        <v>2.932145876412887</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.048670876998714</v>
+        <v>-2.319940690739216</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>0.007755851499336178</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.06646781949300375</v>
+        <v>-0.06646781949300362</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03862440286454751</v>
+        <v>-0.03731520856546537</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.210630260437091</v>
+        <v>-0.2089053949719617</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.02561879665183946</v>
+        <v>-0.01972942120164164</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06247768324259965</v>
+        <v>-0.06120322113034855</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01924227810413458</v>
+        <v>-0.01588535242973087</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1057644283897523</v>
+        <v>-0.1078076100199389</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.04991748451228899</v>
+        <v>0.05026570454899414</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.07218193066003027</v>
+        <v>-0.06256486520667945</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.04259199600728684</v>
+        <v>0.04343144457250368</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.02101053043362933</v>
+        <v>0.02420591630518446</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03678711869026784</v>
+        <v>0.03594289477702713</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.02521157395491453</v>
+        <v>-0.02804309122934932</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>-0.3387050708959283</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-3.962362866639779</v>
+        <v>-3.962362866639768</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.1575538447284863</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.878823801891479</v>
+        <v>-4.026630300356867</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.093414559187668</v>
+        <v>-8.585248826544369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.228592049563007</v>
+        <v>-2.984601573095432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.132704541666406</v>
+        <v>-5.112192373985605</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.510397837796026</v>
+        <v>-2.62367379463627</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.716031873806453</v>
+        <v>-5.546374845826916</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.329556610795253</v>
+        <v>3.389741454063709</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3230925986830308</v>
+        <v>0.4640349535770292</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.727271991465065</v>
+        <v>2.745492397307223</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8930942696765547</v>
+        <v>1.131224391525636</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.221992107215924</v>
+        <v>1.97066983240901</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.466401032800292</v>
+        <v>-0.4251500528885361</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +850,7 @@
         <v>-0.004159587693323775</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.04866120183249987</v>
+        <v>-0.04866120183249973</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.001802389471845417</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04646828184246498</v>
+        <v>-0.04924044161313428</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.09830720502504768</v>
+        <v>-0.1039546032937856</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.03644562806401199</v>
+        <v>-0.03329759904330837</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.05770891061735304</v>
+        <v>-0.05742148867562404</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02937512522586612</v>
+        <v>-0.03060517258130825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06673877054030193</v>
+        <v>-0.0644653049076212</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.04234619328428505</v>
+        <v>0.04266400405014736</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.003689070163796263</v>
+        <v>0.005334232946171661</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03180444344333858</v>
+        <v>0.03163622892432377</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01023370986679607</v>
+        <v>0.01313085372705912</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0268630436472676</v>
+        <v>0.02375540088081008</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.005640868217995763</v>
+        <v>-0.005095876805369362</v>
       </c>
     </row>
     <row r="16">
@@ -938,13 +938,13 @@
         <v>0.3864469964227069</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.972459281070161</v>
+        <v>-2.97245928107015</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7178475856703614</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.742801418217776</v>
+        <v>-1.742801418217799</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.290682959774763</v>
+        <v>-2.114951843633466</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.038996471004075</v>
+        <v>-3.986981101210054</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.506897952446085</v>
+        <v>-2.484751632080874</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.044904750257616</v>
+        <v>-6.188031418705839</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.683561752800744</v>
+        <v>-1.513659361414512</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.135121832109102</v>
+        <v>-4.088748358529102</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.475013651756836</v>
+        <v>4.416228147349786</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.11130500840583</v>
+        <v>3.229979233141282</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.421008744022409</v>
+        <v>3.158481673656562</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.2157450430846237</v>
+        <v>-0.2126122695623496</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.014471257964888</v>
+        <v>3.039796635103127</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5092550578504123</v>
+        <v>0.4980780285519486</v>
       </c>
     </row>
     <row r="19">
@@ -1016,13 +1016,13 @@
         <v>0.004295764593468289</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.03304200952096499</v>
+        <v>-0.03304200952096487</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008187367955647824</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.01987741794972919</v>
+        <v>-0.01987741794972945</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02640039863750646</v>
+        <v>-0.02416710852479189</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.04650009821836702</v>
+        <v>-0.04553374710565438</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02739035251912655</v>
+        <v>-0.02716454451282384</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.06658993551190298</v>
+        <v>-0.0684727080652085</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.01906044870807672</v>
+        <v>-0.01707182882035337</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04654172448326341</v>
+        <v>-0.04627828189109103</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05373329308028503</v>
+        <v>0.05270370026676315</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.03734242283000966</v>
+        <v>0.03853254858264185</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.03897967663140688</v>
+        <v>0.03599040494515351</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.002513873909644116</v>
+        <v>-0.002450751225048876</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03480516968593716</v>
+        <v>0.03494180044039442</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005899120701771864</v>
+        <v>0.005798784958259545</v>
       </c>
     </row>
     <row r="22">
@@ -1098,13 +1098,13 @@
         <v>-3.575089622912986</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.214267210509124</v>
+        <v>2.214267210509135</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-3.522567339667371</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.7264659155452602</v>
+        <v>0.7264659155452491</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.060886940190651</v>
+        <v>-8.363341582947879</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.994334742682783</v>
+        <v>-4.787961926754799</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.779260399826082</v>
+        <v>-8.346224322474388</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.674872036730812</v>
+        <v>-1.831314445546668</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.16279284318706</v>
+        <v>-6.737951042004767</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.12190592427927</v>
+        <v>-2.393061207517539</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9816861584065764</v>
+        <v>1.292553988219933</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.35011497809736</v>
+        <v>3.857843085731484</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.348838966847573</v>
+        <v>1.469708561016757</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.411884486715456</v>
+        <v>6.582209748938913</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.3417745844644522</v>
+        <v>-0.2281386587232726</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.728340031456919</v>
+        <v>3.580305022242244</v>
       </c>
     </row>
     <row r="25">
@@ -1176,13 +1176,13 @@
         <v>-0.04102941780023799</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.02541197678488454</v>
+        <v>0.02541197678488466</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.0410287025478328</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008461429146975518</v>
+        <v>0.00846142914697539</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.0922240149049498</v>
+        <v>-0.0980126286624837</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05777179207527188</v>
+        <v>-0.05444632685904983</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.09818854284184357</v>
+        <v>-0.09348141255385568</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01860148835724555</v>
+        <v>-0.02019374564425118</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08191574337882658</v>
+        <v>-0.07750409111689079</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.0242868793468511</v>
+        <v>-0.0271805146450339</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.01514186514533668</v>
+        <v>0.01477738236116285</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.04062285267783304</v>
+        <v>0.04690464785800538</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.01583146924706712</v>
+        <v>0.01741004954672829</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.07633632198391632</v>
+        <v>0.07875425903287264</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.004094200391846378</v>
+        <v>-0.003153803581727007</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0443800970447797</v>
+        <v>0.04265937433904656</v>
       </c>
     </row>
     <row r="28">
@@ -1252,13 +1252,13 @@
         <v>-0.3199978120991709</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-1.969974857630619</v>
+        <v>-1.969974857630608</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-0.3349812959740572</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-1.039228880410514</v>
+        <v>-1.039228880410503</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-0.310502164047477</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.299472135849035</v>
+        <v>-2.162207080291131</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.037701595067316</v>
+        <v>-4.083150458686104</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.890499404590904</v>
+        <v>-1.863597506541611</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.739121397741186</v>
+        <v>-2.723327755761059</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.504791888803326</v>
+        <v>-1.53367250872884</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.895399971458954</v>
+        <v>-2.876025342547971</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.478608691768686</v>
+        <v>1.601169098526217</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2849743899787665</v>
+        <v>0.03838225217427984</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.243292687628577</v>
+        <v>1.275080553753422</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5612476670973805</v>
+        <v>0.5137078154302174</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9708355953321616</v>
+        <v>0.8957837722878373</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.1700659101373704</v>
+        <v>-0.191218464509668</v>
       </c>
     </row>
     <row r="31">
@@ -1330,13 +1330,13 @@
         <v>-0.003895041479411274</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.02397870702156735</v>
+        <v>-0.02397870702156722</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.003818232772175303</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.01184549052936311</v>
+        <v>-0.01184549052936298</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.003653001983397821</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02781563647993586</v>
+        <v>-0.0260184807081881</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.04873400759296442</v>
+        <v>-0.04950898914817682</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02122715893137699</v>
+        <v>-0.02105187576498497</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.03094325767505775</v>
+        <v>-0.03059509783801729</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.0176896094795293</v>
+        <v>-0.01788243217314901</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.03377384826070646</v>
+        <v>-0.03365904656024187</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01820049520351987</v>
+        <v>0.0196967320098425</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.003634173785598989</v>
+        <v>0.0003440592634384799</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.01436503725556335</v>
+        <v>0.01472562018216918</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.006439966709681282</v>
+        <v>0.005982828966822297</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.0115335077066667</v>
+        <v>0.01063789229070044</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.002115535015822265</v>
+        <v>-0.002391339405875981</v>
       </c>
     </row>
     <row r="34">
